--- a/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 20242.xlsx
+++ b/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 20242.xlsx
@@ -940,25 +940,25 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>100</v>
+        <v>9.1</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1007,25 +1007,25 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="H4" s="1">
-        <v>100</v>
+        <v>4.5</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J4">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1042,25 +1042,25 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="J5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1074,25 +1074,25 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H6" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="J6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1109,25 +1109,25 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>81.8</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>18.2</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1141,25 +1141,25 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>81.8</v>
       </c>
       <c r="H8" s="1">
-        <v>100</v>
+        <v>18.2</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1272,25 +1272,25 @@
         <v>94</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F12">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>57.4</v>
       </c>
       <c r="H12" s="1">
-        <v>100</v>
+        <v>42.6</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="J12">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>38.3</v>
       </c>
     </row>
   </sheetData>
@@ -1361,19 +1361,19 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>100</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="I2" s="2">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1428,19 +1428,19 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I4" s="2">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>18.2</v>
       </c>
       <c r="I7" s="2">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>18.2</v>
       </c>
       <c r="I8" s="2">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1693,19 +1693,19 @@
         <v>94</v>
       </c>
       <c r="E12">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>95.7</v>
+        <v>94.7</v>
       </c>
       <c r="H12" s="1">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="I12" s="2">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J12">
         <v>0</v>

--- a/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 20242.xlsx
+++ b/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 20242.xlsx
@@ -1176,25 +1176,25 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1211,25 +1211,25 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="J10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1243,25 +1243,25 @@
         <v>36</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>97.2</v>
       </c>
       <c r="H11" s="1">
-        <v>100</v>
+        <v>2.8</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1272,25 +1272,25 @@
         <v>94</v>
       </c>
       <c r="E12">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>57.4</v>
+        <v>94.7</v>
       </c>
       <c r="H12" s="1">
-        <v>42.6</v>
+        <v>5.3</v>
       </c>
       <c r="I12" s="2">
-        <v>5.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J12">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>38.3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="2">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>2.8</v>
       </c>
       <c r="I11" s="2">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>5.3</v>
       </c>
       <c r="I12" s="2">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="J12">
         <v>0</v>
